--- a/TestList/7.0ZKbillquery.xlsx
+++ b/TestList/7.0ZKbillquery.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>序号
 （id）</t>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>//a[@has-permission="invoiceManage/electronView"]</t>
+  </si>
+  <si>
+    <t>Wattingbatchinvoice2</t>
   </si>
   <si>
     <t>invoiceopenfail</t>
@@ -175,9 +178,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,83 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,20 +321,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,31 +331,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,31 +463,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,115 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +529,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,8 +578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,8 +587,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,131 +640,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1336,7 +1339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1344,24 +1347,24 @@
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
+      <c r="E11" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" ht="27" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -1370,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1384,13 +1387,13 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>38</v>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1401,22 +1404,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1424,24 +1427,24 @@
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
+      <c r="E15" t="s">
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" ht="27" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1450,21 +1453,41 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C3:C4 C15:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C3:C4 C16:C17">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15:D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16:D17">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D18:D65460">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 D19:D65461">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestList/7.0ZKbillquery.xlsx
+++ b/TestList/7.0ZKbillquery.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12090"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://xh.zkjxjy.com/login/index</t>
+    <t>https://zkzj.59iedu.com/login/index</t>
   </si>
   <si>
     <t>空</t>
@@ -111,7 +111,7 @@
     <t>invoicemanagement</t>
   </si>
   <si>
-    <t>http://xh.zkjxjy.com/admin/invoiceManage</t>
+    <t>https://zkzj.59iedu.com/admin/invoiceManage</t>
   </si>
   <si>
     <t>invoiceopening</t>
@@ -178,46 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,51 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -291,18 +209,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,9 +272,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,11 +525,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,11 +592,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,16 +603,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,31 +622,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,131 +640,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1484,11 +1484,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C3:C4 C16:C17">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 D19:D65461">
+      <formula1>"xpath,name,id,css,text"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16:D17">
       <formula1>"URL,Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 D19:D65461">
-      <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
